--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1158.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1158.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.527672535765859</v>
+        <v>1.164169430732727</v>
       </c>
       <c r="B1">
-        <v>1.669612912881743</v>
+        <v>2.4220130443573</v>
       </c>
       <c r="C1">
-        <v>1.960714096076659</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.367483433114715</v>
+        <v>2.376243591308594</v>
       </c>
       <c r="E1">
-        <v>1.61448557703827</v>
+        <v>1.234835505485535</v>
       </c>
     </row>
   </sheetData>
